--- a/biology/Zoologie/Aride_(Seychelles)/Aride_(Seychelles).xlsx
+++ b/biology/Zoologie/Aride_(Seychelles)/Aride_(Seychelles).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aride est une île appartenant à l'archipel des Seychelles, située à dix kilomètres au nord de Praslin. 
@@ -513,12 +525,14 @@
           <t>Biodiversité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'île  constitue la réserve spéciale de l'île Aride et est gérée par l'organisation non gouvernementale seychelloise Island Conservation Society.
 De très nombreux oiseaux marins y nichent, notamment les plus importantes colonies au monde de noddis marianne et de puffins d'Audubon, et la plus importante population des Seychelles de sternes de Dougall. 
 On y trouve également de nombreuses espèces de reptiles (tortues, geckos, lézards...) et une espèce végétale endémique, Rothmannia annae.
-La réserve a été classée zone importante pour la conservation des oiseaux[1].
+La réserve a été classée zone importante pour la conservation des oiseaux.
 </t>
         </is>
       </c>
